--- a/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,33; 95,97</t>
+          <t>86,21; 96,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,92; 97,12</t>
+          <t>89,85; 97,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,57; 95,7</t>
+          <t>89,91; 96,07</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,62; 97,57</t>
+          <t>91,89; 97,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,48; 96,74</t>
+          <t>92,3; 96,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,25; 96,67</t>
+          <t>93,22; 96,61</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,54; 95,17</t>
+          <t>90,55; 95,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,01; 95,42</t>
+          <t>91,93; 95,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,12; 94,88</t>
+          <t>91,83; 94,87</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,66; 96,49</t>
+          <t>92,84; 96,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,0; 96,6</t>
+          <t>94,03; 96,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,93; 96,2</t>
+          <t>94,1; 96,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,32; 97,61</t>
+          <t>94,33; 97,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,27; 96,94</t>
+          <t>94,44; 96,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,95; 96,9</t>
+          <t>94,84; 96,96</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,5; 97,72</t>
+          <t>95,28; 97,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,64; 97,72</t>
+          <t>95,71; 97,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,9; 97,49</t>
+          <t>95,87; 97,42</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,06; 95,88</t>
+          <t>93,97; 95,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,72; 96,12</t>
+          <t>94,74; 96,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,68; 95,78</t>
+          <t>94,56; 95,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>92,96%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,21; 96,33</t>
+          <t>85,5; 96,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,85; 97,21</t>
+          <t>89,19; 97,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,91; 96,07</t>
+          <t>89,29; 96,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,38%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,89; 97,53</t>
+          <t>91,46; 97,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 96,77</t>
+          <t>92,91; 97,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,22; 96,61</t>
+          <t>93,37; 96,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,53%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,55; 95,34</t>
+          <t>90,61; 95,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,93; 95,59</t>
+          <t>91,88; 95,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,83; 94,87</t>
+          <t>91,78; 94,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>95,79%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,84; 96,52</t>
+          <t>93,88; 98,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,51</t>
+          <t>94,06; 96,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,1; 96,33</t>
+          <t>94,51; 97,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>95,98%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,33; 97,62</t>
+          <t>94,31; 97,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,44; 96,98</t>
+          <t>94,34; 96,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,84; 96,96</t>
+          <t>94,82; 96,91</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>97,14%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,28; 97,75</t>
+          <t>95,01; 98,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,71; 97,72</t>
+          <t>95,67; 99,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,87; 97,42</t>
+          <t>95,87; 98,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,83</t>
+          <t>94,64; 98,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,74; 96,14</t>
+          <t>94,84; 97,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,56; 95,75</t>
+          <t>95,19; 97,35</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95,2%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>95,58%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>94,09; 96,29</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>94,86; 96,49</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>94,66; 96,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,5; 96,31</t>
+          <t>85,52; 96,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,19; 97,08</t>
+          <t>88,79; 97,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,29; 96,04</t>
+          <t>89,04; 95,74</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,46; 97,46</t>
+          <t>91,45; 97,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,91; 97,55</t>
+          <t>92,99; 97,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,37; 96,92</t>
+          <t>93,23; 97,01</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,61; 95,36</t>
+          <t>90,61; 95,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,88; 95,53</t>
+          <t>91,91; 95,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,78; 94,83</t>
+          <t>92,01; 94,83</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,88; 98,47</t>
+          <t>93,82; 98,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,06; 96,61</t>
+          <t>94,02; 96,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,51; 97,47</t>
+          <t>94,47; 97,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,31; 97,6</t>
+          <t>94,36; 97,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,34; 96,94</t>
+          <t>94,35; 97,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,82; 96,91</t>
+          <t>94,77; 96,84</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,01; 98,0</t>
+          <t>95,04; 98,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,67; 99,05</t>
+          <t>95,63; 99,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,87; 98,63</t>
+          <t>95,91; 98,58</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,64; 98,21</t>
+          <t>94,45; 98,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,84; 97,37</t>
+          <t>94,79; 97,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,19; 97,35</t>
+          <t>95,32; 97,42</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>94,09; 96,29</t>
+          <t>94,22; 96,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,86; 96,49</t>
+          <t>94,88; 96,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,66; 96,04</t>
+          <t>94,8; 96,1</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que utilizan como principal grasa para cocinar el aceite de oliva</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>361454</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>292073</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>653527</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>335752; 377780</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>275661; 301404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>625967; 673129</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>403236</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>486477</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>889714</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>387346; 412919</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>473528; 495845</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>869650; 904886</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>497249</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>509013</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1006261</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>483362; 507242</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>498582; 518109</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>989934; 1020313</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>849462</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>679620</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1529082</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>829889; 871238</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>669253; 688723</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1508038; 1556640</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>536694</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>524250</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1060944</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>526691; 544563</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>516339; 531070</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1047576; 1070483</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>356187</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>592402</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>948589</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>349897; 361001</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>581755; 602605</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>936578; 962645</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>272164</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>409918</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>682081</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>265689; 276195</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>403657; 414784</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>674057; 688899</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5093</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>8278</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3276446</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3493752</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6770198</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3242677; 3318017</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3468372; 3524900</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6728011; 6820115</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>